--- a/CasinoGamesAPITest/CasinoGamesAPITest/src/test/java/BrokenMarkets/1CraftbetSoccerDataErrorMarketsList.xlsx
+++ b/CasinoGamesAPITest/CasinoGamesAPITest/src/test/java/BrokenMarkets/1CraftbetSoccerDataErrorMarketsList.xlsx
@@ -12,9 +12,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="481" uniqueCount="480">
-  <si>
-    <t>This market works for Client  GameID = 3738426  MarketName = Race To th Goal</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="476" uniqueCount="466">
+  <si>
+    <t>This market works for Client  GameID = 3741105  MarketName = Last Team To Score</t>
   </si>
   <si>
     <t>This market works for Client  GameID = 3246416  MarketName = Last Team To Score</t>
@@ -62,36 +62,36 @@
     <t>This market works for Client  GameID = 3246420  MarketName = To Win Both Halves</t>
   </si>
   <si>
+    <t>This market works for Client  GameID = 3246420  MarketName = To Score in Both Halves</t>
+  </si>
+  <si>
     <t>This market works for Client  GameID = 3246420  MarketName = To Win To Nil</t>
   </si>
   <si>
-    <t>This market works for Client  GameID = 3246420  MarketName = To Score in Both Halves</t>
-  </si>
-  <si>
     <t>This market works for Client  GameID = 3246420  MarketName = To Miss A Penalty</t>
   </si>
   <si>
     <t>This market works for Client  GameID = 3246421  MarketName = To Win Both Halves</t>
   </si>
   <si>
+    <t>This market works for Client  GameID = 3246421  MarketName = To Score in Both Halves</t>
+  </si>
+  <si>
     <t>This market works for Client  GameID = 3246421  MarketName = To Win To Nil</t>
   </si>
   <si>
-    <t>This market works for Client  GameID = 3246421  MarketName = To Score in Both Halves</t>
-  </si>
-  <si>
     <t>This market works for Client  GameID = 3246421  MarketName = To Miss A Penalty</t>
   </si>
   <si>
     <t>This market works for Client  GameID = 3246422  MarketName = To Win Both Halves</t>
   </si>
   <si>
+    <t>This market works for Client  GameID = 3246422  MarketName = To Win To Nil</t>
+  </si>
+  <si>
     <t>This market works for Client  GameID = 3246422  MarketName = To Score in Both Halves</t>
   </si>
   <si>
-    <t>This market works for Client  GameID = 3246422  MarketName = To Win To Nil</t>
-  </si>
-  <si>
     <t>This market works for Client  GameID = 3246422  MarketName = To Miss A Penalty</t>
   </si>
   <si>
@@ -131,15 +131,15 @@
     <t>This market works for Client  GameID = 3246425  MarketName = To Win Both Halves</t>
   </si>
   <si>
+    <t>This market works for Client  GameID = 3246425  MarketName = To Win To Nil</t>
+  </si>
+  <si>
+    <t>This market works for Client  GameID = 3246425  MarketName = To Miss A Penalty</t>
+  </si>
+  <si>
     <t>This market works for Client  GameID = 3246425  MarketName = To Score in Both Halves</t>
   </si>
   <si>
-    <t>This market works for Client  GameID = 3246425  MarketName = To Win To Nil</t>
-  </si>
-  <si>
-    <t>This market works for Client  GameID = 3246425  MarketName = To Miss A Penalty</t>
-  </si>
-  <si>
     <t>This market works for Client  GameID = 3246426  MarketName = To Win Both Halves</t>
   </si>
   <si>
@@ -167,12 +167,12 @@
     <t>This market works for Client  GameID = 3246428  MarketName = To Win Both Halves</t>
   </si>
   <si>
+    <t>This market works for Client  GameID = 3246428  MarketName = To Score in Both Halves</t>
+  </si>
+  <si>
     <t>This market works for Client  GameID = 3246428  MarketName = To Win To Nil</t>
   </si>
   <si>
-    <t>This market works for Client  GameID = 3246428  MarketName = To Score in Both Halves</t>
-  </si>
-  <si>
     <t>This market works for Client  GameID = 3246428  MarketName = To Miss A Penalty</t>
   </si>
   <si>
@@ -182,12 +182,12 @@
     <t>This market works for Client  GameID = 3246429  MarketName = To Win Both Halves</t>
   </si>
   <si>
+    <t>This market works for Client  GameID = 3246429  MarketName = To Win To Nil</t>
+  </si>
+  <si>
     <t>This market works for Client  GameID = 3246429  MarketName = To Score in Both Halves</t>
   </si>
   <si>
-    <t>This market works for Client  GameID = 3246429  MarketName = To Win To Nil</t>
-  </si>
-  <si>
     <t>This market works for Client  GameID = 3246429  MarketName = To Miss A Penalty</t>
   </si>
   <si>
@@ -233,30 +233,63 @@
     <t>This market works for Client  GameID = 3715772  MarketName = Last Team To Score</t>
   </si>
   <si>
+    <t>This market works for Client  GameID = 3740521  MarketName = Northern Ireland (W) Exact Goals</t>
+  </si>
+  <si>
+    <t>This market works for Client  GameID = 3740523  MarketName = Bosnia and Herzegovina (W) Exact Goals</t>
+  </si>
+  <si>
+    <t>This market works for Client  GameID = 3740708  MarketName = Portugal (W) Exact Goals</t>
+  </si>
+  <si>
+    <t>This market works for Client  GameID = 3741039  MarketName = Kosovo (W) Exact Goals</t>
+  </si>
+  <si>
+    <t>This market works for Client  GameID = 3741150  MarketName = Croatia (W) Exact Goals</t>
+  </si>
+  <si>
+    <t>This market works for Client  GameID = 3741198  MarketName = Wales (W) Exact Goals</t>
+  </si>
+  <si>
+    <t>This market works for Client  GameID = 3741198  MarketName = Slovenia (W) Exact Goals</t>
+  </si>
+  <si>
+    <t>This market works for Client  GameID = 3741218  MarketName = Sweden (W) Exact Goals</t>
+  </si>
+  <si>
+    <t>This market works for Client  GameID = 3741221  MarketName = Serbia (W) Exact Goals</t>
+  </si>
+  <si>
+    <t>This market works for Client  GameID = 3741222  MarketName = Iceland (W) Exact Goals</t>
+  </si>
+  <si>
+    <t>This market works for Client  GameID = 3742518  MarketName = Correct Score</t>
+  </si>
+  <si>
     <t>This market works for Client  GameID = 3708299  MarketName = To Win Both Halves</t>
   </si>
   <si>
+    <t>This market works for Client  GameID = 3708299  MarketName = To Miss A Penalty</t>
+  </si>
+  <si>
     <t>This market works for Client  GameID = 3708299  MarketName = To Score in Both Halves</t>
   </si>
   <si>
     <t>This market works for Client  GameID = 3708299  MarketName = To Win To Nil</t>
   </si>
   <si>
-    <t>This market works for Client  GameID = 3708299  MarketName = To Miss A Penalty</t>
-  </si>
-  <si>
     <t>This market works for Client  GameID = 3708300  MarketName = To Win Both Halves</t>
   </si>
   <si>
     <t>This market works for Client  GameID = 3708300  MarketName = To Score in Both Halves</t>
   </si>
   <si>
+    <t>This market works for Client  GameID = 3708300  MarketName = To Miss A Penalty</t>
+  </si>
+  <si>
     <t>This market works for Client  GameID = 3708300  MarketName = To Win To Nil</t>
   </si>
   <si>
-    <t>This market works for Client  GameID = 3708300  MarketName = To Miss A Penalty</t>
-  </si>
-  <si>
     <t>This market works for Client  GameID = 3708301  MarketName = To Win Both Halves</t>
   </si>
   <si>
@@ -281,6 +314,9 @@
     <t>This market works for Client  GameID = 3708302  MarketName = To Miss A Penalty</t>
   </si>
   <si>
+    <t>This market works for Client  GameID = 3708302  MarketName = Race To th Goal</t>
+  </si>
+  <si>
     <t>This market works for Client  GameID = 3708303  MarketName = To Win Both Halves</t>
   </si>
   <si>
@@ -299,12 +335,12 @@
     <t>This market works for Client  GameID = 3708411  MarketName = To Score in Both Halves</t>
   </si>
   <si>
+    <t>This market works for Client  GameID = 3708411  MarketName = To Win To Nil</t>
+  </si>
+  <si>
     <t>This market works for Client  GameID = 3708411  MarketName = To Miss A Penalty</t>
   </si>
   <si>
-    <t>This market works for Client  GameID = 3708411  MarketName = To Win To Nil</t>
-  </si>
-  <si>
     <t>This market works for Client  GameID = 3708412  MarketName = To Win Both Halves</t>
   </si>
   <si>
@@ -347,12 +383,12 @@
     <t>This market works for Client  GameID = 3708415  MarketName = To Score in Both Halves</t>
   </si>
   <si>
+    <t>This market works for Client  GameID = 3708415  MarketName = To Win To Nil</t>
+  </si>
+  <si>
     <t>This market works for Client  GameID = 3708415  MarketName = To Miss A Penalty</t>
   </si>
   <si>
-    <t>This market works for Client  GameID = 3708415  MarketName = To Win To Nil</t>
-  </si>
-  <si>
     <t>This market works for Client  GameID = 3708430  MarketName = To Win Both Halves</t>
   </si>
   <si>
@@ -368,24 +404,24 @@
     <t>This market works for Client  GameID = 3708431  MarketName = To Win Both Halves</t>
   </si>
   <si>
+    <t>This market works for Client  GameID = 3708431  MarketName = To Win To Nil</t>
+  </si>
+  <si>
     <t>This market works for Client  GameID = 3708431  MarketName = To Score in Both Halves</t>
   </si>
   <si>
     <t>This market works for Client  GameID = 3708431  MarketName = To Miss A Penalty</t>
   </si>
   <si>
-    <t>This market works for Client  GameID = 3708431  MarketName = To Win To Nil</t>
-  </si>
-  <si>
     <t>This market works for Client  GameID = 3708433  MarketName = To Win Both Halves</t>
   </si>
   <si>
+    <t>This market works for Client  GameID = 3708433  MarketName = To Score in Both Halves</t>
+  </si>
+  <si>
     <t>This market works for Client  GameID = 3708433  MarketName = To Win To Nil</t>
   </si>
   <si>
-    <t>This market works for Client  GameID = 3708433  MarketName = To Score in Both Halves</t>
-  </si>
-  <si>
     <t>This market works for Client  GameID = 3708433  MarketName = To Miss A Penalty</t>
   </si>
   <si>
@@ -404,15 +440,15 @@
     <t>This market works for Client  GameID = 3708449  MarketName = To Win Both Halves</t>
   </si>
   <si>
+    <t>This market works for Client  GameID = 3708449  MarketName = To Score in Both Halves</t>
+  </si>
+  <si>
+    <t>This market works for Client  GameID = 3708449  MarketName = To Win To Nil</t>
+  </si>
+  <si>
     <t>This market works for Client  GameID = 3708449  MarketName = To Miss A Penalty</t>
   </si>
   <si>
-    <t>This market works for Client  GameID = 3708449  MarketName = To Win To Nil</t>
-  </si>
-  <si>
-    <t>This market works for Client  GameID = 3708449  MarketName = To Score in Both Halves</t>
-  </si>
-  <si>
     <t>This market works for Client  GameID = 3708456  MarketName = To Win Both Halves</t>
   </si>
   <si>
@@ -443,6 +479,9 @@
     <t>This market works for Client  GameID = 3712819  MarketName = To Win To Nil</t>
   </si>
   <si>
+    <t>This market works for Client  GameID = 3712819  MarketName = Race To th Goal</t>
+  </si>
+  <si>
     <t>This market works for Client  GameID = 3712820  MarketName = To Win Both Halves</t>
   </si>
   <si>
@@ -476,12 +515,12 @@
     <t>This market works for Client  GameID = 3712823  MarketName = To Win Both Halves</t>
   </si>
   <si>
+    <t>This market works for Client  GameID = 3712823  MarketName = To Win To Nil</t>
+  </si>
+  <si>
     <t>This market works for Client  GameID = 3712823  MarketName = To Score in Both Halves</t>
   </si>
   <si>
-    <t>This market works for Client  GameID = 3712823  MarketName = To Win To Nil</t>
-  </si>
-  <si>
     <t>This market works for Client  GameID = 3712824  MarketName = To Win Both Halves</t>
   </si>
   <si>
@@ -503,10 +542,13 @@
     <t>This market works for Client  GameID = 3712827  MarketName = To Win Both Halves</t>
   </si>
   <si>
+    <t>This market works for Client  GameID = 3712827  MarketName = To Score in Both Halves</t>
+  </si>
+  <si>
     <t>This market works for Client  GameID = 3712827  MarketName = To Win To Nil</t>
   </si>
   <si>
-    <t>This market works for Client  GameID = 3712827  MarketName = To Score in Both Halves</t>
+    <t>This market works for Client  GameID = 3712827  MarketName = Race To th Goal</t>
   </si>
   <si>
     <t>This market works for Client  GameID = 3712828  MarketName = To Win Both Halves</t>
@@ -521,12 +563,12 @@
     <t>This market works for Client  GameID = 3712829  MarketName = To Win Both Halves</t>
   </si>
   <si>
+    <t>This market works for Client  GameID = 3712829  MarketName = To Win To Nil</t>
+  </si>
+  <si>
     <t>This market works for Client  GameID = 3712829  MarketName = To Score in Both Halves</t>
   </si>
   <si>
-    <t>This market works for Client  GameID = 3712829  MarketName = To Win To Nil</t>
-  </si>
-  <si>
     <t>This market works for Client  GameID = 3712830  MarketName = To Win Both Halves</t>
   </si>
   <si>
@@ -575,37 +617,40 @@
     <t>This market works for Client  GameID = 3712800  MarketName = To Win Both Halves</t>
   </si>
   <si>
+    <t>This market works for Client  GameID = 3712800  MarketName = To Win To Nil</t>
+  </si>
+  <si>
+    <t>This market works for Client  GameID = 3712800  MarketName = To Miss A Penalty</t>
+  </si>
+  <si>
     <t>This market works for Client  GameID = 3712800  MarketName = To Score in Both Halves</t>
   </si>
   <si>
-    <t>This market works for Client  GameID = 3712800  MarketName = To Win To Nil</t>
-  </si>
-  <si>
-    <t>This market works for Client  GameID = 3712800  MarketName = To Miss A Penalty</t>
-  </si>
-  <si>
     <t>This market works for Client  GameID = 3712801  MarketName = To Win Both Halves</t>
   </si>
   <si>
     <t>This market works for Client  GameID = 3712801  MarketName = To Score in Both Halves</t>
   </si>
   <si>
+    <t>This market works for Client  GameID = 3712801  MarketName = To Miss A Penalty</t>
+  </si>
+  <si>
     <t>This market works for Client  GameID = 3712801  MarketName = To Win To Nil</t>
   </si>
   <si>
-    <t>This market works for Client  GameID = 3712801  MarketName = To Miss A Penalty</t>
-  </si>
-  <si>
     <t>This market works for Client  GameID = 3712802  MarketName = To Win Both Halves</t>
   </si>
   <si>
     <t>This market works for Client  GameID = 3712802  MarketName = To Score in Both Halves</t>
   </si>
   <si>
+    <t>This market works for Client  GameID = 3712802  MarketName = To Miss A Penalty</t>
+  </si>
+  <si>
     <t>This market works for Client  GameID = 3712802  MarketName = To Win To Nil</t>
   </si>
   <si>
-    <t>This market works for Client  GameID = 3712802  MarketName = To Miss A Penalty</t>
+    <t>This market works for Client  GameID = 3712818  MarketName = Last Team To Score</t>
   </si>
   <si>
     <t>This market works for Client  GameID = 3712818  MarketName = To Win Both Halves</t>
@@ -614,60 +659,60 @@
     <t>This market works for Client  GameID = 3712818  MarketName = To Score in Both Halves</t>
   </si>
   <si>
+    <t>This market works for Client  GameID = 3712818  MarketName = To Miss A Penalty</t>
+  </si>
+  <si>
     <t>This market works for Client  GameID = 3712818  MarketName = To Win To Nil</t>
   </si>
   <si>
-    <t>This market works for Client  GameID = 3712818  MarketName = To Miss A Penalty</t>
-  </si>
-  <si>
     <t>This market works for Client  GameID = 3712826  MarketName = To Win Both Halves</t>
   </si>
   <si>
+    <t>This market works for Client  GameID = 3712826  MarketName = To Win To Nil</t>
+  </si>
+  <si>
+    <t>This market works for Client  GameID = 3712826  MarketName = To Miss A Penalty</t>
+  </si>
+  <si>
     <t>This market works for Client  GameID = 3712826  MarketName = To Score in Both Halves</t>
   </si>
   <si>
-    <t>This market works for Client  GameID = 3712826  MarketName = To Win To Nil</t>
-  </si>
-  <si>
-    <t>This market works for Client  GameID = 3712826  MarketName = To Miss A Penalty</t>
-  </si>
-  <si>
     <t>This market works for Client  GameID = 3712831  MarketName = To Win Both Halves</t>
   </si>
   <si>
     <t>This market works for Client  GameID = 3712831  MarketName = To Score in Both Halves</t>
   </si>
   <si>
+    <t>This market works for Client  GameID = 3712831  MarketName = To Miss A Penalty</t>
+  </si>
+  <si>
     <t>This market works for Client  GameID = 3712831  MarketName = To Win To Nil</t>
   </si>
   <si>
-    <t>This market works for Client  GameID = 3712831  MarketName = To Miss A Penalty</t>
-  </si>
-  <si>
     <t>This market works for Client  GameID = 3712833  MarketName = To Win Both Halves</t>
   </si>
   <si>
     <t>This market works for Client  GameID = 3712833  MarketName = To Score in Both Halves</t>
   </si>
   <si>
+    <t>This market works for Client  GameID = 3712833  MarketName = To Miss A Penalty</t>
+  </si>
+  <si>
     <t>This market works for Client  GameID = 3712833  MarketName = To Win To Nil</t>
   </si>
   <si>
-    <t>This market works for Client  GameID = 3712833  MarketName = To Miss A Penalty</t>
-  </si>
-  <si>
     <t>This market works for Client  GameID = 3712835  MarketName = To Win Both Halves</t>
   </si>
   <si>
     <t>This market works for Client  GameID = 3712835  MarketName = To Score in Both Halves</t>
   </si>
   <si>
+    <t>This market works for Client  GameID = 3712835  MarketName = To Win To Nil</t>
+  </si>
+  <si>
     <t>This market works for Client  GameID = 3712835  MarketName = To Miss A Penalty</t>
   </si>
   <si>
-    <t>This market works for Client  GameID = 3712835  MarketName = To Win To Nil</t>
-  </si>
-  <si>
     <t>This market works for Client  GameID = 3712838  MarketName = To Win Both Halves</t>
   </si>
   <si>
@@ -695,81 +740,78 @@
     <t>This market works for Client  GameID = 3712840  MarketName = To Win Both Halves</t>
   </si>
   <si>
+    <t>This market works for Client  GameID = 3712840  MarketName = To Score in Both Halves</t>
+  </si>
+  <si>
     <t>This market works for Client  GameID = 3712840  MarketName = To Win To Nil</t>
   </si>
   <si>
     <t>This market works for Client  GameID = 3712840  MarketName = To Miss A Penalty</t>
   </si>
   <si>
-    <t>This market works for Client  GameID = 3712840  MarketName = To Score in Both Halves</t>
-  </si>
-  <si>
-    <t>This market works for Client  GameID = 3712841  MarketName = Last Team To Score</t>
-  </si>
-  <si>
     <t>This market works for Client  GameID = 3712841  MarketName = To Win Both Halves</t>
   </si>
   <si>
+    <t>This market works for Client  GameID = 3712841  MarketName = To Miss A Penalty</t>
+  </si>
+  <si>
     <t>This market works for Client  GameID = 3712841  MarketName = To Score in Both Halves</t>
   </si>
   <si>
     <t>This market works for Client  GameID = 3712841  MarketName = To Win To Nil</t>
   </si>
   <si>
-    <t>This market works for Client  GameID = 3712841  MarketName = To Miss A Penalty</t>
-  </si>
-  <si>
     <t>This market works for Client  GameID = 3712841  MarketName = Race To th Goal</t>
   </si>
   <si>
     <t>This market works for Client  GameID = 3712842  MarketName = To Win Both Halves</t>
   </si>
   <si>
+    <t>This market works for Client  GameID = 3712842  MarketName = To Win To Nil</t>
+  </si>
+  <si>
     <t>This market works for Client  GameID = 3712842  MarketName = To Score in Both Halves</t>
   </si>
   <si>
-    <t>This market works for Client  GameID = 3712842  MarketName = To Win To Nil</t>
-  </si>
-  <si>
     <t>This market works for Client  GameID = 3712842  MarketName = To Miss A Penalty</t>
   </si>
   <si>
     <t>This market works for Client  GameID = 3712843  MarketName = To Win Both Halves</t>
   </si>
   <si>
+    <t>This market works for Client  GameID = 3712843  MarketName = To Miss A Penalty</t>
+  </si>
+  <si>
+    <t>This market works for Client  GameID = 3712843  MarketName = To Win To Nil</t>
+  </si>
+  <si>
     <t>This market works for Client  GameID = 3712843  MarketName = To Score in Both Halves</t>
   </si>
   <si>
-    <t>This market works for Client  GameID = 3712843  MarketName = To Win To Nil</t>
-  </si>
-  <si>
-    <t>This market works for Client  GameID = 3712843  MarketName = To Miss A Penalty</t>
-  </si>
-  <si>
     <t>This market works for Client  GameID = 3712844  MarketName = To Win Both Halves</t>
   </si>
   <si>
     <t>This market works for Client  GameID = 3712844  MarketName = To Win To Nil</t>
   </si>
   <si>
+    <t>This market works for Client  GameID = 3712844  MarketName = To Score in Both Halves</t>
+  </si>
+  <si>
     <t>This market works for Client  GameID = 3712844  MarketName = To Miss A Penalty</t>
   </si>
   <si>
-    <t>This market works for Client  GameID = 3712844  MarketName = To Score in Both Halves</t>
-  </si>
-  <si>
     <t>This market works for Client  GameID = 3712845  MarketName = To Win Both Halves</t>
   </si>
   <si>
     <t>This market works for Client  GameID = 3712845  MarketName = To Score in Both Halves</t>
   </si>
   <si>
+    <t>This market works for Client  GameID = 3712845  MarketName = To Miss A Penalty</t>
+  </si>
+  <si>
     <t>This market works for Client  GameID = 3712845  MarketName = To Win To Nil</t>
   </si>
   <si>
-    <t>This market works for Client  GameID = 3712845  MarketName = To Miss A Penalty</t>
-  </si>
-  <si>
     <t>This market works for Client  GameID = 3715260  MarketName = Last Team To Score</t>
   </si>
   <si>
@@ -782,22 +824,28 @@
     <t>This market works for Client  GameID = 3715276  MarketName = Last Team To Score</t>
   </si>
   <si>
+    <t>This market works for Client  GameID = 3715277  MarketName = Last Team To Score</t>
+  </si>
+  <si>
     <t>This market works for Client  GameID = 3715284  MarketName = Last Team To Score</t>
   </si>
   <si>
-    <t>This market works for Client  GameID = 3708722  MarketName = Last Team To Score</t>
-  </si>
-  <si>
-    <t>This market works for Client  GameID = 3708722  MarketName = To Win Both Halves</t>
-  </si>
-  <si>
-    <t>This market works for Client  GameID = 3708722  MarketName = To Score in Both Halves</t>
-  </si>
-  <si>
-    <t>This market works for Client  GameID = 3708722  MarketName = To Win To Nil</t>
-  </si>
-  <si>
-    <t>This market works for Client  GameID = 3708722  MarketName = To Miss A Penalty</t>
+    <t>This market works for Client  GameID = 3741391  MarketName = 2 Half Exact Goals</t>
+  </si>
+  <si>
+    <t>This market works for Client  GameID = 3741402  MarketName = 2 Half Exact Goals</t>
+  </si>
+  <si>
+    <t>This market works for Client  GameID = 3741405  MarketName = 2 Half Exact Goals</t>
+  </si>
+  <si>
+    <t>This market works for Client  GameID = 3741405  MarketName = Race To th Goal</t>
+  </si>
+  <si>
+    <t>This market works for Client  GameID = 3741406  MarketName = 2 Half Exact Goals</t>
+  </si>
+  <si>
+    <t>This market works for Client  GameID = 3741407  MarketName = 2 Half Exact Goals</t>
   </si>
   <si>
     <t>This market works for Client  GameID = 3715316  MarketName = Last Team To Score</t>
@@ -812,57 +860,48 @@
     <t>This market works for Client  GameID = 3715451  MarketName = Last Team To Score</t>
   </si>
   <si>
-    <t>This market works for Client  GameID = 3736436  MarketName = 1 Half Correct Score</t>
-  </si>
-  <si>
-    <t>This market works for Client  GameID = 3736437  MarketName = 1 Half Correct Score</t>
-  </si>
-  <si>
-    <t>This market works for Client  GameID = 3736438  MarketName = 1 Half Correct Score</t>
-  </si>
-  <si>
-    <t>This market works for Client  GameID = 3736439  MarketName = 1 Half Correct Score</t>
-  </si>
-  <si>
-    <t>This market works for Client  GameID = 3736443  MarketName = Correct Score</t>
-  </si>
-  <si>
-    <t>This market works for Client  GameID = 3736443  MarketName = 1 Half Correct Score</t>
+    <t>This market works for Client  GameID = 3736436  MarketName = Last Team To Score</t>
+  </si>
+  <si>
+    <t>This market works for Client  GameID = 3736444  MarketName = Last Team To Score</t>
+  </si>
+  <si>
+    <t>This market works for Client  GameID = 3738510  MarketName = Race To th Goal</t>
+  </si>
+  <si>
+    <t>This market works for Client  GameID = 3734353  MarketName = CD Alaves Exact Goals</t>
+  </si>
+  <si>
+    <t>This market works for Client  GameID = 3734675  MarketName = Cartagena FC Exact Goals</t>
+  </si>
+  <si>
+    <t>This market works for Client  GameID = 3737322  MarketName = Sporting Gijon Exact Goals</t>
+  </si>
+  <si>
+    <t>This market works for Client  GameID = 3738501  MarketName = Race To th Goal</t>
+  </si>
+  <si>
+    <t>This market works for Client  GameID = 3738542  MarketName = Mirandes Exact Goals</t>
+  </si>
+  <si>
+    <t>This market works for Client  GameID = 3739334  MarketName = SD Huesca Exact Goals</t>
+  </si>
+  <si>
+    <t>This market works for Client  GameID = 3740513  MarketName = Last Team To Score</t>
+  </si>
+  <si>
+    <t>This market works for Client  GameID = 3740513  MarketName = Race To th Goal</t>
+  </si>
+  <si>
+    <t>This market works for Client  GameID = 3740516  MarketName = Race To th Goal</t>
+  </si>
+  <si>
+    <t>This market works for Client  GameID = 3740517  MarketName = Eibar Exact Goals</t>
   </si>
   <si>
     <t>This market works for Client  GameID = 3721646  MarketName = Race To th Goal</t>
   </si>
   <si>
-    <t>This market works for Client  GameID = 3736432  MarketName = 1 Half Correct Score</t>
-  </si>
-  <si>
-    <t>This market works for Client  GameID = 3736435  MarketName = 1 Half Correct Score</t>
-  </si>
-  <si>
-    <t>This market works for Client  GameID = 3736445  MarketName = 1 Half Correct Score</t>
-  </si>
-  <si>
-    <t>This market works for Client  GameID = 3736450  MarketName = 1 Half Correct Score</t>
-  </si>
-  <si>
-    <t>This market works for Client  GameID = 3736460  MarketName = 1 Half Correct Score</t>
-  </si>
-  <si>
-    <t>This market works for Client  GameID = 3738420  MarketName = 1 Half Correct Score</t>
-  </si>
-  <si>
-    <t>This market works for Client  GameID = 3710773  MarketName = To Win Both Halves</t>
-  </si>
-  <si>
-    <t>This market works for Client  GameID = 3710773  MarketName = To Score in Both Halves</t>
-  </si>
-  <si>
-    <t>This market works for Client  GameID = 3710773  MarketName = To Win To Nil</t>
-  </si>
-  <si>
-    <t>This market works for Client  GameID = 3710773  MarketName = To Miss A Penalty</t>
-  </si>
-  <si>
     <t>This market works for Client  GameID = 3718755  MarketName = Last Team To Score</t>
   </si>
   <si>
@@ -872,190 +911,85 @@
     <t>This market works for Client  GameID = 3718760  MarketName = Last Team To Score</t>
   </si>
   <si>
-    <t>This market works for Client  GameID = 3736160  MarketName = Correct Score</t>
-  </si>
-  <si>
-    <t>This market works for Client  GameID = 3737138  MarketName = Correct Score</t>
-  </si>
-  <si>
-    <t>This market works for Client  GameID = 3737139  MarketName = Correct Score</t>
-  </si>
-  <si>
-    <t>This market works for Client  GameID = 3737143  MarketName = Correct Score</t>
-  </si>
-  <si>
-    <t>This market works for Client  GameID = 3737144  MarketName = Correct Score</t>
-  </si>
-  <si>
-    <t>This market works for Client  GameID = 3737146  MarketName = Correct Score</t>
+    <t>This market works for Client  GameID = 3737138  MarketName = Race To th Goal</t>
   </si>
   <si>
     <t>This market works for Client  GameID = 3737146  MarketName = Last Team To Score</t>
   </si>
   <si>
-    <t>This market works for Client  GameID = 3737149  MarketName = Correct Score</t>
-  </si>
-  <si>
-    <t>This market works for Client  GameID = 3737152  MarketName = Correct Score</t>
-  </si>
-  <si>
-    <t>This market works for Client  GameID = 3737153  MarketName = Correct Score</t>
-  </si>
-  <si>
-    <t>This market works for Client  GameID = 3737155  MarketName = Correct Score</t>
-  </si>
-  <si>
-    <t>This market works for Client  GameID = 3737156  MarketName = Correct Score</t>
-  </si>
-  <si>
-    <t>This market works for Client  GameID = 3737157  MarketName = Correct Score</t>
+    <t>This market works for Client  GameID = 3715233  MarketName = Race To th Goal</t>
+  </si>
+  <si>
+    <t>This market works for Client  GameID = 3715241  MarketName = Last Team To Score</t>
   </si>
   <si>
     <t>This market works for Client  GameID = 3715256  MarketName = Last Team To Score</t>
   </si>
   <si>
-    <t>This market works for Client  GameID = 3738152  MarketName = Correct Score</t>
-  </si>
-  <si>
-    <t>This market works for Client  GameID = 3738152  MarketName = 1 Half Correct Score</t>
-  </si>
-  <si>
-    <t>This market works for Client  GameID = 3738153  MarketName = Correct Score</t>
-  </si>
-  <si>
-    <t>This market works for Client  GameID = 3738153  MarketName = 1 Half Correct Score</t>
-  </si>
-  <si>
-    <t>This market works for Client  GameID = 3738154  MarketName = Correct Score</t>
-  </si>
-  <si>
-    <t>This market works for Client  GameID = 3738154  MarketName = 1 Half Correct Score</t>
-  </si>
-  <si>
-    <t>This market works for Client  GameID = 3738157  MarketName = Correct Score</t>
-  </si>
-  <si>
-    <t>This market works for Client  GameID = 3738157  MarketName = 1 Half Correct Score</t>
-  </si>
-  <si>
-    <t>This market works for Client  GameID = 3738158  MarketName = Correct Score</t>
-  </si>
-  <si>
-    <t>This market works for Client  GameID = 3738158  MarketName = 1 Half Correct Score</t>
-  </si>
-  <si>
-    <t>This market works for Client  GameID = 3736428  MarketName = Correct Score</t>
-  </si>
-  <si>
-    <t>This market works for Client  GameID = 3736428  MarketName = 1 Half Correct Score</t>
-  </si>
-  <si>
-    <t>This market works for Client  GameID = 3736430  MarketName = 1 Half Correct Score</t>
-  </si>
-  <si>
-    <t>This market works for Client  GameID = 3736431  MarketName = 1 Half Correct Score</t>
-  </si>
-  <si>
-    <t>This market works for Client  GameID = 3736981  MarketName = Correct Score</t>
-  </si>
-  <si>
-    <t>This market works for Client  GameID = 3736982  MarketName = Correct Score</t>
-  </si>
-  <si>
-    <t>This market works for Client  GameID = 3708709  MarketName = To Win Both Halves</t>
-  </si>
-  <si>
-    <t>This market works for Client  GameID = 3708709  MarketName = To Score in Both Halves</t>
-  </si>
-  <si>
-    <t>This market works for Client  GameID = 3708709  MarketName = To Win To Nil</t>
-  </si>
-  <si>
-    <t>This market works for Client  GameID = 3739332  MarketName = Correct Score</t>
-  </si>
-  <si>
-    <t>This market works for Client  GameID = 3721661  MarketName = Last Team To Score</t>
-  </si>
-  <si>
-    <t>This market works for Client  GameID = 3736446  MarketName = Correct Score</t>
-  </si>
-  <si>
-    <t>This market works for Client  GameID = 3736447  MarketName = Correct Score</t>
-  </si>
-  <si>
-    <t>This market works for Client  GameID = 3736455  MarketName = Correct Score</t>
-  </si>
-  <si>
-    <t>This market works for Client  GameID = 3736458  MarketName = Correct Score</t>
-  </si>
-  <si>
-    <t>This market works for Client  GameID = 3736462  MarketName = Correct Score</t>
-  </si>
-  <si>
-    <t>This market works for Client  GameID = 3736621  MarketName = Correct Score</t>
-  </si>
-  <si>
-    <t>This market works for Client  GameID = 3736621  MarketName = 1 Half Correct Score</t>
-  </si>
-  <si>
-    <t>This market works for Client  GameID = 3737312  MarketName = Correct Score</t>
-  </si>
-  <si>
-    <t>This market works for Client  GameID = 3737312  MarketName = 1 Half Correct Score</t>
-  </si>
-  <si>
-    <t>This market works for Client  GameID = 3736417  MarketName = Correct Score</t>
-  </si>
-  <si>
-    <t>This market works for Client  GameID = 3736418  MarketName = Correct Score</t>
-  </si>
-  <si>
-    <t>This market works for Client  GameID = 3736419  MarketName = 1 Half Correct Score</t>
-  </si>
-  <si>
-    <t>This market works for Client  GameID = 3736420  MarketName = Correct Score</t>
-  </si>
-  <si>
-    <t>This market works for Client  GameID = 3736424  MarketName = Correct Score</t>
-  </si>
-  <si>
-    <t>This market works for Client  GameID = 3736426  MarketName = Correct Score</t>
-  </si>
-  <si>
-    <t>This market works for Client  GameID = 3736978  MarketName = Correct Score</t>
-  </si>
-  <si>
-    <t>This market works for Client  GameID = 3715274  MarketName = Last Team To Score</t>
-  </si>
-  <si>
-    <t>This market works for Client  GameID = 3725442  MarketName = Correct Score</t>
-  </si>
-  <si>
-    <t>This market works for Client  GameID = 3725443  MarketName = Correct Score</t>
-  </si>
-  <si>
-    <t>This market works for Client  GameID = 3726363  MarketName = Correct Score</t>
-  </si>
-  <si>
-    <t>This market works for Client  GameID = 3727028  MarketName = Correct Score</t>
-  </si>
-  <si>
-    <t>This market works for Client  GameID = 3727028  MarketName = 1 Half Correct Score</t>
-  </si>
-  <si>
-    <t>This market works for Client  GameID = 3736067  MarketName = Correct Score</t>
-  </si>
-  <si>
-    <t>This market works for Client  GameID = 3715880  MarketName = Correct Score</t>
-  </si>
-  <si>
-    <t>This market works for Client  GameID = 3716130  MarketName = 1 Half Correct Score</t>
-  </si>
-  <si>
-    <t>This market works for Client  GameID = 3716131  MarketName = Correct Score</t>
-  </si>
-  <si>
-    <t>This market works for Client  GameID = 3716135  MarketName = Correct Score</t>
+    <t>This market works for Client  GameID = 3738152  MarketName = Last Team To Score</t>
+  </si>
+  <si>
+    <t>This market works for Client  GameID = 3715662  MarketName = Race To th Goal</t>
+  </si>
+  <si>
+    <t>This market works for Client  GameID = 3721131  MarketName = Race To th Goal</t>
+  </si>
+  <si>
+    <t>This market works for Client  GameID = 3721140  MarketName = Race To th Goal</t>
+  </si>
+  <si>
+    <t>This market works for Client  GameID = 3724651  MarketName = Race To th Goal</t>
+  </si>
+  <si>
+    <t>This market works for Client  GameID = 3731098  MarketName = Race To th Goal</t>
+  </si>
+  <si>
+    <t>This market works for Client  GameID = 3735144  MarketName = Correct Score</t>
+  </si>
+  <si>
+    <t>This market works for Client  GameID = 3734339  MarketName = Race To th Goal</t>
+  </si>
+  <si>
+    <t>This market works for Client  GameID = 3734668  MarketName = Last Team To Score</t>
+  </si>
+  <si>
+    <t>This market works for Client  GameID = 3738500  MarketName = Race To th Goal</t>
+  </si>
+  <si>
+    <t>This market works for Client  GameID = 3724580  MarketName = Race To th Goal</t>
+  </si>
+  <si>
+    <t>This market works for Client  GameID = 3729502  MarketName = Last Team To Score</t>
+  </si>
+  <si>
+    <t>This market works for Client  GameID = 3729505  MarketName = Last Team To Score</t>
+  </si>
+  <si>
+    <t>This market works for Client  GameID = 3732141  MarketName = Last Team To Score</t>
+  </si>
+  <si>
+    <t>This market works for Client  GameID = 3732158  MarketName = Last Team To Score</t>
+  </si>
+  <si>
+    <t>This market works for Client  GameID = 3726363  MarketName = Race To th Goal</t>
+  </si>
+  <si>
+    <t>This market works for Client  GameID = 3739508  MarketName = Race To th Goal</t>
+  </si>
+  <si>
+    <t>This market works for Client  GameID = 3732097  MarketName = Last Team To Score</t>
+  </si>
+  <si>
+    <t>This market works for Client  GameID = 3737505  MarketName = Race To th Goal</t>
+  </si>
+  <si>
+    <t>This market works for Client  GameID = 3738419  MarketName = Race To th Goal</t>
+  </si>
+  <si>
+    <t>This market works for Client  GameID = 3724310  MarketName = Race To th Goal</t>
+  </si>
+  <si>
+    <t>This market works for Client  GameID = 3732101  MarketName = Race To th Goal</t>
   </si>
   <si>
     <t>This market works for Client  GameID = 3707641  MarketName = To Win Both Halves</t>
@@ -1067,154 +1001,169 @@
     <t>This market works for Client  GameID = 3707641  MarketName = To Win To Nil</t>
   </si>
   <si>
-    <t>This market works for Client  GameID = 3715980  MarketName = Race To th Goal</t>
-  </si>
-  <si>
-    <t>This market works for Client  GameID = 3715921  MarketName = Last Team To Score</t>
-  </si>
-  <si>
-    <t>This market works for Client  GameID = 3736454  MarketName = Correct Score</t>
-  </si>
-  <si>
-    <t>This market works for Client  GameID = 3713030  MarketName = To Win Both Halves</t>
-  </si>
-  <si>
-    <t>This market works for Client  GameID = 3713030  MarketName = To Score in Both Halves</t>
-  </si>
-  <si>
-    <t>This market works for Client  GameID = 3713030  MarketName = To Win To Nil</t>
-  </si>
-  <si>
-    <t>This market works for Client  GameID = 3713032  MarketName = To Win Both Halves</t>
-  </si>
-  <si>
-    <t>This market works for Client  GameID = 3713032  MarketName = To Score in Both Halves</t>
-  </si>
-  <si>
-    <t>This market works for Client  GameID = 3713032  MarketName = To Win To Nil</t>
-  </si>
-  <si>
-    <t>This market works for Client  GameID = 3713044  MarketName = To Win Both Halves</t>
-  </si>
-  <si>
-    <t>This market works for Client  GameID = 3713044  MarketName = To Score in Both Halves</t>
-  </si>
-  <si>
-    <t>This market works for Client  GameID = 3713044  MarketName = To Win To Nil</t>
-  </si>
-  <si>
-    <t>This market works for Client  GameID = 3736122  MarketName = Correct Score</t>
-  </si>
-  <si>
-    <t>This market works for Client  GameID = 3738507  MarketName = Correct Score</t>
-  </si>
-  <si>
-    <t>This market works for Client  GameID = 3736459  MarketName = Correct Score</t>
+    <t>This market works for Client  GameID = 3715972  MarketName = Last Team To Score</t>
+  </si>
+  <si>
+    <t>This market works for Client  GameID = 3715972  MarketName = Race To th Goal</t>
+  </si>
+  <si>
+    <t>This market works for Client  GameID = 3716040  MarketName = Race To th Goal</t>
+  </si>
+  <si>
+    <t>3740093  This game has no available Markets</t>
+  </si>
+  <si>
+    <t>3740094  This game has no available Markets</t>
+  </si>
+  <si>
+    <t>3740095  This game has no available Markets</t>
+  </si>
+  <si>
+    <t>This market works for Client  GameID = 3743192  MarketName = Correct Score</t>
+  </si>
+  <si>
+    <t>This market works for Client  GameID = 3743192  MarketName = 1 Half Correct Score</t>
+  </si>
+  <si>
+    <t>This market works for Client  GameID = 3715865  MarketName = Last Team To Score</t>
+  </si>
+  <si>
+    <t>This market works for Client  GameID = 3736122  MarketName = Race To th Goal</t>
+  </si>
+  <si>
+    <t>This market works for Client  GameID = 3738515  MarketName = Race To th Goal</t>
+  </si>
+  <si>
+    <t>This market works for Client  GameID = 3739336  MarketName = Last Team To Score</t>
+  </si>
+  <si>
+    <t>This market works for Client  GameID = 3739336  MarketName = Talleres de Cordoba Exact Goals</t>
+  </si>
+  <si>
+    <t>This market works for Client  GameID = 3739336  MarketName = Defensa y Justicia Exact Goals</t>
+  </si>
+  <si>
+    <t>This market works for Client  GameID = 3725898  MarketName = Last Team To Score</t>
   </si>
   <si>
     <t>This market works for Client  GameID = 3732391  MarketName = Last Team To Score</t>
   </si>
   <si>
-    <t>This market works for Client  GameID = 3735123  MarketName = Correct Score</t>
-  </si>
-  <si>
-    <t>This market works for Client  GameID = 3736280  MarketName = Correct Score</t>
-  </si>
-  <si>
-    <t>This market works for Client  GameID = 3736280  MarketName = 1 Half Correct Score</t>
-  </si>
-  <si>
-    <t>This market works for Client  GameID = 3738424  MarketName = 1 Half Correct Score</t>
-  </si>
-  <si>
-    <t>This market works for Client  GameID = 3738530  MarketName = 1 Half Correct Score</t>
-  </si>
-  <si>
-    <t>This market works for Client  GameID = 3715754  MarketName = Correct Score</t>
+    <t>This market works for Client  GameID = 3736280  MarketName = Last Team To Score</t>
+  </si>
+  <si>
+    <t>This market works for Client  GameID = 3718797  MarketName = Race To th Goal</t>
+  </si>
+  <si>
+    <t>This market works for Client  GameID = 3721134  MarketName = Race To th Goal</t>
   </si>
   <si>
     <t>This market works for Client  GameID = 3727705  MarketName = 2 Half Exact Goals</t>
   </si>
   <si>
-    <t>This market works for Client  GameID = 3736954  MarketName = Correct Score</t>
-  </si>
-  <si>
-    <t>This market works for Client  GameID = 3737071  MarketName = Correct Score</t>
-  </si>
-  <si>
-    <t>This market works for Client  GameID = 3739300  MarketName = Correct Score</t>
-  </si>
-  <si>
-    <t>This market works for Client  GameID = 3739300  MarketName = 1 Half Correct Score</t>
-  </si>
-  <si>
-    <t>This market works for Client  GameID = 3736126  MarketName = Last Team To Score</t>
-  </si>
-  <si>
-    <t>This market works for Client  GameID = 3736133  MarketName = 1 Half Correct Score</t>
-  </si>
-  <si>
-    <t>This market works for Client  GameID = 3736137  MarketName = Last Team To Score</t>
+    <t>This market works for Client  GameID = 3739299  MarketName = Last Team To Score</t>
+  </si>
+  <si>
+    <t>This market works for Client  GameID = 3739303  MarketName = Last Team To Score</t>
   </si>
   <si>
     <t>This market works for Client  GameID = 3731645  MarketName = Last Team To Score</t>
   </si>
   <si>
-    <t>This market works for Client  GameID = 3736668  MarketName = Correct Score</t>
-  </si>
-  <si>
-    <t>This market works for Client  GameID = 3737072  MarketName = 1 Half Correct Score</t>
-  </si>
-  <si>
-    <t>3724750  This game has no available Markets</t>
+    <t>This market works for Client  GameID = 3735525  MarketName = Correct Score</t>
+  </si>
+  <si>
+    <t>This market works for Client  GameID = 3737898  MarketName = Race To th Goal</t>
+  </si>
+  <si>
+    <t>This market works for Client  GameID = 3721501  MarketName = 2 Half Exact Goals</t>
   </si>
   <si>
     <t>This market works for Client  GameID = 3721503  MarketName = Correct Score</t>
   </si>
   <si>
-    <t>This market works for Client  GameID = 3721503  MarketName = 1 Half Correct Score</t>
-  </si>
-  <si>
-    <t>This market works for Client  GameID = 3721504  MarketName = Correct Score</t>
-  </si>
-  <si>
-    <t>This market works for Client  GameID = 3721506  MarketName = Correct Score</t>
-  </si>
-  <si>
-    <t>This market works for Client  GameID = 3721507  MarketName = Correct Score</t>
-  </si>
-  <si>
-    <t>This market works for Client  GameID = 3721507  MarketName = 1 Half Correct Score</t>
-  </si>
-  <si>
-    <t>This market works for Client  GameID = 3739395  MarketName = Correct Score</t>
-  </si>
-  <si>
-    <t>This market works for Client  GameID = 3692571  MarketName = To Win Both Halves</t>
-  </si>
-  <si>
-    <t>This market works for Client  GameID = 3692571  MarketName = To Score in Both Halves</t>
-  </si>
-  <si>
-    <t>This market works for Client  GameID = 3692571  MarketName = To Win To Nil</t>
-  </si>
-  <si>
-    <t>This market works for Client  GameID = 3736068  MarketName = Last Team To Score</t>
-  </si>
-  <si>
-    <t>This market works for Client  GameID = 3736096  MarketName = Last Team To Score</t>
-  </si>
-  <si>
-    <t>This market works for Client  GameID = 3737073  MarketName = Last Team To Score</t>
+    <t>This market works for Client  GameID = 3721503  MarketName = Fehervar Exact Goals</t>
+  </si>
+  <si>
+    <t>This market works for Client  GameID = 3721503  MarketName = Mezokovesd-Zsory Exact Goals</t>
+  </si>
+  <si>
+    <t>This market works for Client  GameID = 3721503  MarketName = 2 Half Exact Goals</t>
+  </si>
+  <si>
+    <t>This market works for Client  GameID = 3721504  MarketName = Last Team To Score</t>
+  </si>
+  <si>
+    <t>This market works for Client  GameID = 3721506  MarketName = Vasas Odorhei Exact Goals</t>
+  </si>
+  <si>
+    <t>This market works for Client  GameID = 3721506  MarketName = 2 Half Exact Goals</t>
+  </si>
+  <si>
+    <t>This market works for Client  GameID = 3721507  MarketName = 2 Half Exact Goals</t>
+  </si>
+  <si>
+    <t>This market works for Client  GameID = 3721507  MarketName = Race To th Goal</t>
+  </si>
+  <si>
+    <t>This market works for Client  GameID = 3739390  MarketName = Last Team To Score</t>
+  </si>
+  <si>
+    <t>This market works for Client  GameID = 3724104  MarketName = Race To th Goal</t>
+  </si>
+  <si>
+    <t>This market works for Client  GameID = 3728697  MarketName = Race To th Goal</t>
+  </si>
+  <si>
+    <t>This market works for Client  GameID = 3728704  MarketName = Race To th Goal</t>
+  </si>
+  <si>
+    <t>This market works for Client  GameID = 3739298  MarketName = Last Team To Score</t>
   </si>
   <si>
     <t>This market works for Client  GameID = 3738417  MarketName = Correct Score</t>
   </si>
   <si>
-    <t>This market works for Client  GameID = 3738505  MarketName = Correct Score</t>
-  </si>
-  <si>
-    <t>This market works for Client  GameID = 3738586  MarketName = 1 Half Correct Score</t>
+    <t>This market works for Client  GameID = 3738422  MarketName = Correct Score</t>
+  </si>
+  <si>
+    <t>This market works for Client  GameID = 3738504  MarketName = Correct Score</t>
+  </si>
+  <si>
+    <t>This market works for Client  GameID = 3739603  MarketName = Race To th Goal</t>
+  </si>
+  <si>
+    <t>This market works for Client  GameID = 3739604  MarketName = Race To th Goal</t>
+  </si>
+  <si>
+    <t>This market works for Client  GameID = 3738586  MarketName = Race To th Goal</t>
+  </si>
+  <si>
+    <t>This market works for Client  GameID = 3739292  MarketName = Correct Score</t>
+  </si>
+  <si>
+    <t>This market works for Client  GameID = 3739293  MarketName = Correct Score</t>
+  </si>
+  <si>
+    <t>This market works for Client  GameID = 3739295  MarketName = Correct Score</t>
+  </si>
+  <si>
+    <t>This market works for Client  GameID = 3739296  MarketName = Race To th Goal</t>
+  </si>
+  <si>
+    <t>This market works for Client  GameID = 3741063  MarketName = Both Team To Score And Outcome</t>
+  </si>
+  <si>
+    <t>This market works for Client  GameID = 3728225  MarketName = Race To th Goal</t>
+  </si>
+  <si>
+    <t>This market works for Client  GameID = 3741032  MarketName = Last Team To Score</t>
+  </si>
+  <si>
+    <t>This market works for Client  GameID = 3739301  MarketName = Last Team To Score</t>
+  </si>
+  <si>
+    <t>This market works for Client  GameID = 3739301  MarketName = Race To th Goal</t>
   </si>
   <si>
     <t>This market works for Client  GameID = 3716038  MarketName = Last Team To Score</t>
@@ -1223,235 +1172,244 @@
     <t>This market works for Client  GameID = 3716039  MarketName = Last Team To Score</t>
   </si>
   <si>
-    <t>This market works for Client  GameID = 3739312  MarketName = 1 Half Correct Score</t>
+    <t>This market works for Client  GameID = 3716042  MarketName = Last Team To Score</t>
+  </si>
+  <si>
+    <t>This market works for Client  GameID = 3739341  MarketName = Last Team To Score</t>
+  </si>
+  <si>
+    <t>This market works for Client  GameID = 3740643  MarketName = Club Tijuana Exact Goals</t>
+  </si>
+  <si>
+    <t>This market works for Client  GameID = 3740645  MarketName = Cruz Azul Exact Goals</t>
+  </si>
+  <si>
+    <t>This market works for Client  GameID = 3740645  MarketName = Mazatlan FC Exact Goals</t>
+  </si>
+  <si>
+    <t>This market works for Client  GameID = 3740649  MarketName = Atlas Exact Goals</t>
+  </si>
+  <si>
+    <t>This market works for Client  GameID = 3740649  MarketName = San Luis Exact Goals</t>
+  </si>
+  <si>
+    <t>This market works for Client  GameID = 3743130  MarketName = Correct Score</t>
+  </si>
+  <si>
+    <t>This market works for Client  GameID = 3723171  MarketName = Last Team To Score</t>
+  </si>
+  <si>
+    <t>This market works for Client  GameID = 3723171  MarketName = Race To th Goal</t>
+  </si>
+  <si>
+    <t>This market works for Client  GameID = 3723260  MarketName = Last Team To Score</t>
   </si>
   <si>
     <t>This market works for Client  GameID = 3723372  MarketName = Last Team To Score</t>
   </si>
   <si>
+    <t>This market works for Client  GameID = 3726945  MarketName = Last Team To Score</t>
+  </si>
+  <si>
     <t>This market works for Client  GameID = 3727676  MarketName = Last Team To Score</t>
   </si>
   <si>
     <t>This market works for Client  GameID = 3728365  MarketName = Last Team To Score</t>
   </si>
   <si>
-    <t>This market works for Client  GameID = 3736665  MarketName = Correct Score</t>
-  </si>
-  <si>
-    <t>This market works for Client  GameID = 3736665  MarketName = 1 Half Correct Score</t>
-  </si>
-  <si>
     <t>3736672  This game has no available Markets</t>
   </si>
   <si>
     <t>3736674  This game has no available Markets</t>
   </si>
   <si>
-    <t>This market works for Client  GameID = 3736288  MarketName = Correct Score</t>
-  </si>
-  <si>
-    <t>This market works for Client  GameID = 3736234  MarketName = Correct Score</t>
-  </si>
-  <si>
-    <t>This market works for Client  GameID = 3736290  MarketName = Correct Score</t>
-  </si>
-  <si>
-    <t>This market works for Client  GameID = 3736289  MarketName = Correct Score</t>
-  </si>
-  <si>
-    <t>This market works for Client  GameID = 3732268  MarketName = Last Team To Score</t>
-  </si>
-  <si>
-    <t>This market works for Client  GameID = 3732104  MarketName = Correct Score</t>
-  </si>
-  <si>
-    <t>This market works for Client  GameID = 3736287  MarketName = 1 Half Correct Score</t>
-  </si>
-  <si>
-    <t>This market works for Client  GameID = 3737067  MarketName = Correct Score</t>
+    <t>This market works for Client  GameID = 3716088  MarketName = Tromso IL Exact Goals</t>
+  </si>
+  <si>
+    <t>This market works for Client  GameID = 3724889  MarketName = Race To th Goal</t>
+  </si>
+  <si>
+    <t>This market works for Client  GameID = 3724895  MarketName = SK Brann Exact Goals</t>
+  </si>
+  <si>
+    <t>This market works for Client  GameID = 3724896  MarketName = Stabaek Exact Goals</t>
+  </si>
+  <si>
+    <t>This market works for Client  GameID = 3724896  MarketName = Raufoss Fotball Exact Goals</t>
+  </si>
+  <si>
+    <t>This market works for Client  GameID = 3732112  MarketName = 2 Half Exact Goals</t>
+  </si>
+  <si>
+    <t>This market works for Client  GameID = 3732112  MarketName = Race To th Goal</t>
+  </si>
+  <si>
+    <t>This market works for Client  GameID = 3735127  MarketName = 2 Half Exact Goals</t>
+  </si>
+  <si>
+    <t>This market works for Client  GameID = 3742526  MarketName = Last Team To Score</t>
+  </si>
+  <si>
+    <t>This market works for Client  GameID = 3743113  MarketName = 1 Half Correct Score</t>
+  </si>
+  <si>
+    <t>This market works for Client  GameID = 3732128  MarketName = 2 Half Exact Goals</t>
+  </si>
+  <si>
+    <t>This market works for Client  GameID = 3732128  MarketName = Race To th Goal</t>
+  </si>
+  <si>
+    <t>This market works for Client  GameID = 3732130  MarketName = 2 Half Exact Goals</t>
+  </si>
+  <si>
+    <t>This market works for Client  GameID = 3732130  MarketName = Race To th Goal</t>
+  </si>
+  <si>
+    <t>This market works for Client  GameID = 3734324  MarketName = 2 Half Exact Goals</t>
+  </si>
+  <si>
+    <t>This market works for Client  GameID = 3735121  MarketName = 2 Half Exact Goals</t>
+  </si>
+  <si>
+    <t>This market works for Client  GameID = 3735142  MarketName = 2 Half Exact Goals</t>
+  </si>
+  <si>
+    <t>This market works for Client  GameID = 3735142  MarketName = Race To th Goal</t>
+  </si>
+  <si>
+    <t>This market works for Client  GameID = 3737067  MarketName = LKS Lodz Exact Goals</t>
+  </si>
+  <si>
+    <t>This market works for Client  GameID = 3737067  MarketName = LKS Nieciecza Exact Goals</t>
+  </si>
+  <si>
+    <t>This market works for Client  GameID = 3737500  MarketName = 2 Half Exact Goals</t>
+  </si>
+  <si>
+    <t>This market works for Client  GameID = 3738499  MarketName = Podbeskidzie Bielsko-Biala Exact Goals</t>
+  </si>
+  <si>
+    <t>This market works for Client  GameID = 3738499  MarketName = 2 Half Exact Goals</t>
+  </si>
+  <si>
+    <t>This market works for Client  GameID = 3739333  MarketName = 2 Half Exact Goals</t>
   </si>
   <si>
     <t>3717397  This game has no available Markets</t>
   </si>
   <si>
-    <t>This market works for Client  GameID = 3729248  MarketName = Last Team To Score</t>
+    <t>This market works for Client  GameID = 3739346  MarketName = Last Team To Score</t>
+  </si>
+  <si>
+    <t>This market works for Client  GameID = 3735146  MarketName = Race To th Goal</t>
   </si>
   <si>
     <t>This market works for Client  GameID = 3736233  MarketName = Last Team To Score</t>
   </si>
   <si>
-    <t>This market works for Client  GameID = 3738506  MarketName = Correct Score</t>
-  </si>
-  <si>
-    <t>This market works for Client  GameID = 3738506  MarketName = 1 Half Correct Score</t>
-  </si>
-  <si>
-    <t>This market works for Client  GameID = 3736159  MarketName = Correct Score</t>
-  </si>
-  <si>
-    <t>This market works for Client  GameID = 3736165  MarketName = Correct Score</t>
-  </si>
-  <si>
-    <t>This market works for Client  GameID = 3739937  MarketName = Correct Score</t>
-  </si>
-  <si>
-    <t>This market works for Client  GameID = 3739943  MarketName = Correct Score</t>
-  </si>
-  <si>
-    <t>This market works for Client  GameID = 3738498  MarketName = Correct Score</t>
-  </si>
-  <si>
-    <t>This market works for Client  GameID = 3737326  MarketName = Correct Score</t>
-  </si>
-  <si>
-    <t>This market works for Client  GameID = 3737327  MarketName = Correct Score</t>
-  </si>
-  <si>
-    <t>This market works for Client  GameID = 3737451  MarketName = Correct Score</t>
-  </si>
-  <si>
-    <t>This market works for Client  GameID = 3715999  MarketName = Last Team To Score</t>
-  </si>
-  <si>
-    <t>This market works for Client  GameID = 3735125  MarketName = Correct Score</t>
-  </si>
-  <si>
-    <t>This market works for Client  GameID = 3735125  MarketName = 1 Half Correct Score</t>
-  </si>
-  <si>
-    <t>This market works for Client  GameID = 3738511  MarketName = Correct Score</t>
-  </si>
-  <si>
-    <t>This market works for Client  GameID = 3738511  MarketName = 1 Half Correct Score</t>
-  </si>
-  <si>
-    <t>This market works for Client  GameID = 3739385  MarketName = Correct Score</t>
-  </si>
-  <si>
-    <t>This market works for Client  GameID = 3737521  MarketName = Correct Score</t>
-  </si>
-  <si>
-    <t>This market works for Client  GameID = 3732109  MarketName = Correct Score</t>
-  </si>
-  <si>
-    <t>This market works for Client  GameID = 3732115  MarketName = Correct Score</t>
-  </si>
-  <si>
-    <t>This market works for Client  GameID = 3725447  MarketName = Correct Score</t>
-  </si>
-  <si>
-    <t>This market works for Client  GameID = 3725449  MarketName = Correct Score</t>
-  </si>
-  <si>
-    <t>This market works for Client  GameID = 3725450  MarketName = Correct Score</t>
-  </si>
-  <si>
-    <t>This market works for Client  GameID = 3725454  MarketName = Correct Score</t>
-  </si>
-  <si>
-    <t>This market works for Client  GameID = 3737504  MarketName = Servette Geneva Exact Goals</t>
-  </si>
-  <si>
-    <t>This market works for Client  GameID = 3737504  MarketName =  FC Zurich Exact Goals</t>
-  </si>
-  <si>
-    <t>This market works for Client  GameID = 3737504  MarketName = 2 Half Exact Goals</t>
-  </si>
-  <si>
-    <t>This market works for Client  GameID = 3738425  MarketName = Basel Exact Goals</t>
+    <t>This market works for Client  GameID = 3739351  MarketName = Last Team To Score</t>
+  </si>
+  <si>
+    <t>This market works for Client  GameID = 3722139  MarketName = Race To th Goal</t>
+  </si>
+  <si>
+    <t>This market works for Client  GameID = 3739498  MarketName = Race To th Goal</t>
+  </si>
+  <si>
+    <t>This market works for Client  GameID = 3739499  MarketName = Race To th Goal</t>
+  </si>
+  <si>
+    <t>This market works for Client  GameID = 3739500  MarketName = Race To th Goal</t>
+  </si>
+  <si>
+    <t>This market works for Client  GameID = 3724529  MarketName = Race To th Goal</t>
+  </si>
+  <si>
+    <t>This market works for Client  GameID = 3724531  MarketName = Last Team To Score</t>
+  </si>
+  <si>
+    <t>This market works for Client  GameID = 3725449  MarketName = Race To th Goal</t>
+  </si>
+  <si>
+    <t>This market works for Client  GameID = 3739985  MarketName = 1 Half Correct Score</t>
+  </si>
+  <si>
+    <t>This market works for Client  GameID = 3735122  MarketName = 2 Half Exact Goals</t>
+  </si>
+  <si>
+    <t>This market works for Client  GameID = 3735143  MarketName = 2 Half Exact Goals</t>
   </si>
   <si>
     <t>This market works for Client  GameID = 3738425  MarketName = 2 Half Exact Goals</t>
   </si>
   <si>
-    <t>This market works for Client  GameID = 3738535  MarketName = BSC Young Boys Exact Goals</t>
-  </si>
-  <si>
-    <t>This market works for Client  GameID = 3738535  MarketName = 1 Half Correct Score</t>
-  </si>
-  <si>
-    <t>This market works for Client  GameID = 3738535  MarketName = 2 Half Exact Goals</t>
-  </si>
-  <si>
-    <t>This market works for Client  GameID = 3735145  MarketName = Correct Score</t>
-  </si>
-  <si>
-    <t>This market works for Client  GameID = 3737512  MarketName = Correct Score</t>
-  </si>
-  <si>
-    <t>This market works for Client  GameID = 3738529  MarketName = Correct Score</t>
-  </si>
-  <si>
-    <t>This market works for Client  GameID = 3738539  MarketName = Correct Score</t>
-  </si>
-  <si>
-    <t>This market works for Client  GameID = 3715518  MarketName = Race To th Goal</t>
-  </si>
-  <si>
-    <t>This market works for Client  GameID = 3715956  MarketName = Race To th Goal</t>
-  </si>
-  <si>
-    <t>This market works for Client  GameID = 3732438  MarketName = Correct Score</t>
-  </si>
-  <si>
-    <t>This market works for Client  GameID = 3736181  MarketName = Correct Score</t>
-  </si>
-  <si>
-    <t>This market works for Client  GameID = 3736141  MarketName = Correct Score</t>
-  </si>
-  <si>
-    <t>This market works for Client  GameID = 3736148  MarketName = Correct Score</t>
-  </si>
-  <si>
-    <t>This market works for Client  GameID = 3736128  MarketName = Correct Score</t>
-  </si>
-  <si>
-    <t>This market works for Client  GameID = 3736130  MarketName = Correct Score</t>
-  </si>
-  <si>
-    <t>This market works for Client  GameID = 3736127  MarketName = Correct Score</t>
-  </si>
-  <si>
-    <t>This market works for Client  GameID = 3736129  MarketName = Correct Score</t>
-  </si>
-  <si>
-    <t>This market works for Client  GameID = 3736135  MarketName = Correct Score</t>
-  </si>
-  <si>
-    <t>This market works for Client  GameID = 3737081  MarketName = Correct Score</t>
-  </si>
-  <si>
-    <t>This market works for Client  GameID = 3737082  MarketName = Correct Score</t>
+    <t>This market works for Client  GameID = 3716101  MarketName = Last Team To Score</t>
+  </si>
+  <si>
+    <t>This market works for Client  GameID = 3739715  MarketName = Last Team To Score</t>
+  </si>
+  <si>
+    <t>This market works for Client  GameID = 3740120  MarketName = Last Team To Score</t>
+  </si>
+  <si>
+    <t>This market works for Client  GameID = 3740128  MarketName = Last Team To Score</t>
+  </si>
+  <si>
+    <t>This market works for Client  GameID = 3740646  MarketName = Last Team To Score</t>
+  </si>
+  <si>
+    <t>This market works for Client  GameID = 3716111  MarketName = Race To th Goal</t>
+  </si>
+  <si>
+    <t>This market works for Client  GameID = 3737081  MarketName = Race To th Goal</t>
+  </si>
+  <si>
+    <t>3726975  This game has no available Markets</t>
   </si>
   <si>
     <t>3726976  This game has no available Markets</t>
   </si>
   <si>
-    <t>This market works for Client  GameID = 3738534  MarketName = Correct Score</t>
-  </si>
-  <si>
-    <t>This market works for Client  GameID = 3736158  MarketName = Correct Score</t>
-  </si>
-  <si>
-    <t>This market works for Client  GameID = 3736158  MarketName = 1 Half Correct Score</t>
-  </si>
-  <si>
-    <t>This market works for Client  GameID = 3733931  MarketName = Correct Score</t>
-  </si>
-  <si>
-    <t>This market works for Client  GameID = 3733935  MarketName = Correct Score</t>
-  </si>
-  <si>
-    <t>This market works for Client  GameID = 3733938  MarketName = Correct Score</t>
-  </si>
-  <si>
-    <t>This market works for Client  GameID = 3733939  MarketName = Correct Score</t>
-  </si>
-  <si>
-    <t>This market works for Client  GameID = 3733940  MarketName = Correct Score</t>
-  </si>
-  <si>
-    <t>This market works for Client  GameID = 3733942  MarketName = Correct Score</t>
+    <t>3726977  This game has no available Markets</t>
+  </si>
+  <si>
+    <t>3726978  This game has no available Markets</t>
+  </si>
+  <si>
+    <t>3726979  This game has no available Markets</t>
+  </si>
+  <si>
+    <t>This market works for Client  GameID = 3728639  MarketName = Last Team To Score</t>
+  </si>
+  <si>
+    <t>This market works for Client  GameID = 3738534  MarketName = Last Team To Score</t>
+  </si>
+  <si>
+    <t>This market works for Client  GameID = 3736157  MarketName = 2 Half Exact Goals</t>
+  </si>
+  <si>
+    <t>This market works for Client  GameID = 3736433  MarketName = 2 Half Exact Goals</t>
+  </si>
+  <si>
+    <t>This market works for Client  GameID = 3736920  MarketName = 2 Half Exact Goals</t>
+  </si>
+  <si>
+    <t>This market works for Client  GameID = 3739382  MarketName = 2 Half Exact Goals</t>
+  </si>
+  <si>
+    <t>This market works for Client  GameID = 3739606  MarketName = 2 Half Exact Goals</t>
+  </si>
+  <si>
+    <t>This market works for Client  GameID = 3733937  MarketName = Race To th Goal</t>
+  </si>
+  <si>
+    <t>This market works for Client  GameID = 3734049  MarketName = Last Team To Score</t>
+  </si>
+  <si>
+    <t>This market works for Client  GameID = 3736953  MarketName = Race To th Goal</t>
+  </si>
+  <si>
+    <t>This market works for Client  GameID = 3737142  MarketName = Last Team To Score</t>
   </si>
 </sst>
 </file>
@@ -1496,7 +1454,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:A481"/>
+  <dimension ref="A1:A476"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -2872,102 +2830,102 @@
     </row>
     <row r="274">
       <c r="A274" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
     </row>
     <row r="275">
       <c r="A275" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
     </row>
     <row r="276">
       <c r="A276" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
     </row>
     <row r="277">
       <c r="A277" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
     </row>
     <row r="278">
       <c r="A278" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
     </row>
     <row r="279">
       <c r="A279" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
     </row>
     <row r="280">
       <c r="A280" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
     </row>
     <row r="281">
       <c r="A281" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
     </row>
     <row r="282">
       <c r="A282" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
     </row>
     <row r="283">
       <c r="A283" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
     </row>
     <row r="284">
       <c r="A284" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
     </row>
     <row r="285">
       <c r="A285" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
     </row>
     <row r="286">
       <c r="A286" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
     </row>
     <row r="287">
       <c r="A287" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
     </row>
     <row r="288">
       <c r="A288" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
     </row>
     <row r="289">
       <c r="A289" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
     </row>
     <row r="290">
       <c r="A290" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
     </row>
     <row r="291">
       <c r="A291" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
     </row>
     <row r="292">
       <c r="A292" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
     </row>
     <row r="293">
       <c r="A293" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
     </row>
     <row r="294">
@@ -2982,932 +2940,907 @@
     </row>
     <row r="296">
       <c r="A296" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
     </row>
     <row r="297">
       <c r="A297" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
     </row>
     <row r="298">
       <c r="A298" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
     </row>
     <row r="299">
       <c r="A299" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
     </row>
     <row r="300">
       <c r="A300" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
     </row>
     <row r="301">
       <c r="A301" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
     </row>
     <row r="302">
       <c r="A302" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
     </row>
     <row r="303">
       <c r="A303" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
     </row>
     <row r="304">
       <c r="A304" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
     </row>
     <row r="305">
       <c r="A305" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
     </row>
     <row r="306">
       <c r="A306" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
     </row>
     <row r="307">
       <c r="A307" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
     </row>
     <row r="308">
       <c r="A308" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
     </row>
     <row r="309">
       <c r="A309" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
     </row>
     <row r="310">
       <c r="A310" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
     </row>
     <row r="311">
       <c r="A311" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
     </row>
     <row r="312">
       <c r="A312" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
     </row>
     <row r="313">
       <c r="A313" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
     </row>
     <row r="314">
       <c r="A314" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
     </row>
     <row r="315">
       <c r="A315" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
     </row>
     <row r="316">
       <c r="A316" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
     </row>
     <row r="317">
       <c r="A317" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
     </row>
     <row r="318">
       <c r="A318" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
     </row>
     <row r="319">
       <c r="A319" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
     </row>
     <row r="320">
       <c r="A320" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
     </row>
     <row r="321">
       <c r="A321" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
     </row>
     <row r="322">
       <c r="A322" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
     </row>
     <row r="323">
       <c r="A323" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
     </row>
     <row r="324">
       <c r="A324" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
     </row>
     <row r="325">
       <c r="A325" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
     </row>
     <row r="326">
       <c r="A326" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
     </row>
     <row r="327">
       <c r="A327" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
     </row>
     <row r="328">
       <c r="A328" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
     </row>
     <row r="329">
       <c r="A329" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
     </row>
     <row r="330">
       <c r="A330" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
     </row>
     <row r="331">
       <c r="A331" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
     </row>
     <row r="332">
       <c r="A332" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
     </row>
     <row r="333">
       <c r="A333" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
     </row>
     <row r="334">
       <c r="A334" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
     </row>
     <row r="335">
       <c r="A335" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
     </row>
     <row r="336">
       <c r="A336" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
     </row>
     <row r="337">
       <c r="A337" t="s">
-        <v>335</v>
+        <v>330</v>
       </c>
     </row>
     <row r="338">
       <c r="A338" t="s">
-        <v>336</v>
+        <v>331</v>
       </c>
     </row>
     <row r="339">
       <c r="A339" t="s">
-        <v>337</v>
+        <v>332</v>
       </c>
     </row>
     <row r="340">
       <c r="A340" t="s">
-        <v>338</v>
+        <v>333</v>
       </c>
     </row>
     <row r="341">
       <c r="A341" t="s">
-        <v>339</v>
+        <v>334</v>
       </c>
     </row>
     <row r="342">
       <c r="A342" t="s">
-        <v>340</v>
+        <v>335</v>
       </c>
     </row>
     <row r="343">
       <c r="A343" t="s">
-        <v>341</v>
+        <v>336</v>
       </c>
     </row>
     <row r="344">
       <c r="A344" t="s">
-        <v>342</v>
+        <v>337</v>
       </c>
     </row>
     <row r="345">
       <c r="A345" t="s">
-        <v>343</v>
+        <v>338</v>
       </c>
     </row>
     <row r="346">
       <c r="A346" t="s">
-        <v>344</v>
+        <v>339</v>
       </c>
     </row>
     <row r="347">
       <c r="A347" t="s">
-        <v>345</v>
+        <v>340</v>
       </c>
     </row>
     <row r="348">
       <c r="A348" t="s">
-        <v>346</v>
+        <v>341</v>
       </c>
     </row>
     <row r="349">
       <c r="A349" t="s">
-        <v>347</v>
+        <v>342</v>
       </c>
     </row>
     <row r="350">
       <c r="A350" t="s">
-        <v>348</v>
+        <v>343</v>
       </c>
     </row>
     <row r="351">
       <c r="A351" t="s">
-        <v>349</v>
+        <v>344</v>
       </c>
     </row>
     <row r="352">
       <c r="A352" t="s">
-        <v>350</v>
+        <v>345</v>
       </c>
     </row>
     <row r="353">
       <c r="A353" t="s">
-        <v>351</v>
+        <v>346</v>
       </c>
     </row>
     <row r="354">
       <c r="A354" t="s">
-        <v>352</v>
+        <v>347</v>
       </c>
     </row>
     <row r="355">
       <c r="A355" t="s">
-        <v>353</v>
+        <v>348</v>
       </c>
     </row>
     <row r="356">
       <c r="A356" t="s">
-        <v>354</v>
+        <v>349</v>
       </c>
     </row>
     <row r="357">
       <c r="A357" t="s">
-        <v>355</v>
+        <v>350</v>
       </c>
     </row>
     <row r="358">
       <c r="A358" t="s">
-        <v>356</v>
+        <v>351</v>
       </c>
     </row>
     <row r="359">
       <c r="A359" t="s">
-        <v>357</v>
+        <v>352</v>
       </c>
     </row>
     <row r="360">
       <c r="A360" t="s">
-        <v>358</v>
+        <v>353</v>
       </c>
     </row>
     <row r="361">
       <c r="A361" t="s">
-        <v>359</v>
+        <v>354</v>
       </c>
     </row>
     <row r="362">
       <c r="A362" t="s">
-        <v>360</v>
+        <v>355</v>
       </c>
     </row>
     <row r="363">
       <c r="A363" t="s">
-        <v>361</v>
+        <v>356</v>
       </c>
     </row>
     <row r="364">
       <c r="A364" t="s">
-        <v>362</v>
+        <v>357</v>
       </c>
     </row>
     <row r="365">
       <c r="A365" t="s">
-        <v>363</v>
+        <v>358</v>
       </c>
     </row>
     <row r="366">
       <c r="A366" t="s">
-        <v>364</v>
+        <v>359</v>
       </c>
     </row>
     <row r="367">
       <c r="A367" t="s">
-        <v>365</v>
+        <v>360</v>
       </c>
     </row>
     <row r="368">
       <c r="A368" t="s">
-        <v>366</v>
+        <v>361</v>
       </c>
     </row>
     <row r="369">
       <c r="A369" t="s">
-        <v>367</v>
+        <v>362</v>
       </c>
     </row>
     <row r="370">
       <c r="A370" t="s">
-        <v>368</v>
+        <v>363</v>
       </c>
     </row>
     <row r="371">
       <c r="A371" t="s">
-        <v>369</v>
+        <v>364</v>
       </c>
     </row>
     <row r="372">
       <c r="A372" t="s">
-        <v>370</v>
+        <v>365</v>
       </c>
     </row>
     <row r="373">
       <c r="A373" t="s">
-        <v>371</v>
+        <v>366</v>
       </c>
     </row>
     <row r="374">
       <c r="A374" t="s">
-        <v>372</v>
+        <v>367</v>
       </c>
     </row>
     <row r="375">
       <c r="A375" t="s">
-        <v>373</v>
+        <v>368</v>
       </c>
     </row>
     <row r="376">
       <c r="A376" t="s">
-        <v>374</v>
+        <v>369</v>
       </c>
     </row>
     <row r="377">
       <c r="A377" t="s">
-        <v>375</v>
+        <v>370</v>
       </c>
     </row>
     <row r="378">
       <c r="A378" t="s">
-        <v>376</v>
+        <v>371</v>
       </c>
     </row>
     <row r="379">
       <c r="A379" t="s">
-        <v>377</v>
+        <v>372</v>
       </c>
     </row>
     <row r="380">
       <c r="A380" t="s">
-        <v>378</v>
+        <v>373</v>
       </c>
     </row>
     <row r="381">
       <c r="A381" t="s">
-        <v>379</v>
+        <v>374</v>
       </c>
     </row>
     <row r="382">
       <c r="A382" t="s">
-        <v>380</v>
+        <v>375</v>
       </c>
     </row>
     <row r="383">
       <c r="A383" t="s">
-        <v>381</v>
+        <v>376</v>
       </c>
     </row>
     <row r="384">
       <c r="A384" t="s">
-        <v>382</v>
+        <v>377</v>
       </c>
     </row>
     <row r="385">
       <c r="A385" t="s">
-        <v>383</v>
+        <v>378</v>
       </c>
     </row>
     <row r="386">
       <c r="A386" t="s">
-        <v>384</v>
+        <v>379</v>
       </c>
     </row>
     <row r="387">
       <c r="A387" t="s">
-        <v>385</v>
+        <v>380</v>
       </c>
     </row>
     <row r="388">
       <c r="A388" t="s">
-        <v>386</v>
+        <v>380</v>
       </c>
     </row>
     <row r="389">
       <c r="A389" t="s">
-        <v>387</v>
+        <v>381</v>
       </c>
     </row>
     <row r="390">
       <c r="A390" t="s">
-        <v>388</v>
+        <v>382</v>
       </c>
     </row>
     <row r="391">
       <c r="A391" t="s">
-        <v>389</v>
+        <v>383</v>
       </c>
     </row>
     <row r="392">
       <c r="A392" t="s">
-        <v>390</v>
+        <v>383</v>
       </c>
     </row>
     <row r="393">
       <c r="A393" t="s">
-        <v>391</v>
+        <v>384</v>
       </c>
     </row>
     <row r="394">
       <c r="A394" t="s">
-        <v>392</v>
+        <v>385</v>
       </c>
     </row>
     <row r="395">
       <c r="A395" t="s">
-        <v>393</v>
+        <v>386</v>
       </c>
     </row>
     <row r="396">
       <c r="A396" t="s">
-        <v>394</v>
+        <v>387</v>
       </c>
     </row>
     <row r="397">
       <c r="A397" t="s">
-        <v>395</v>
+        <v>388</v>
       </c>
     </row>
     <row r="398">
       <c r="A398" t="s">
-        <v>396</v>
+        <v>389</v>
       </c>
     </row>
     <row r="399">
       <c r="A399" t="s">
-        <v>397</v>
+        <v>390</v>
       </c>
     </row>
     <row r="400">
       <c r="A400" t="s">
-        <v>398</v>
+        <v>391</v>
       </c>
     </row>
     <row r="401">
       <c r="A401" t="s">
-        <v>399</v>
+        <v>392</v>
       </c>
     </row>
     <row r="402">
       <c r="A402" t="s">
-        <v>400</v>
+        <v>393</v>
       </c>
     </row>
     <row r="403">
       <c r="A403" t="s">
-        <v>401</v>
+        <v>394</v>
       </c>
     </row>
     <row r="404">
       <c r="A404" t="s">
-        <v>402</v>
+        <v>395</v>
       </c>
     </row>
     <row r="405">
       <c r="A405" t="s">
-        <v>403</v>
+        <v>396</v>
       </c>
     </row>
     <row r="406">
       <c r="A406" t="s">
-        <v>404</v>
+        <v>397</v>
       </c>
     </row>
     <row r="407">
       <c r="A407" t="s">
-        <v>405</v>
+        <v>398</v>
       </c>
     </row>
     <row r="408">
       <c r="A408" t="s">
-        <v>406</v>
+        <v>399</v>
       </c>
     </row>
     <row r="409">
       <c r="A409" t="s">
-        <v>407</v>
+        <v>400</v>
       </c>
     </row>
     <row r="410">
       <c r="A410" t="s">
-        <v>408</v>
+        <v>401</v>
       </c>
     </row>
     <row r="411">
       <c r="A411" t="s">
-        <v>409</v>
+        <v>402</v>
       </c>
     </row>
     <row r="412">
       <c r="A412" t="s">
-        <v>410</v>
+        <v>403</v>
       </c>
     </row>
     <row r="413">
       <c r="A413" t="s">
-        <v>411</v>
+        <v>404</v>
       </c>
     </row>
     <row r="414">
       <c r="A414" t="s">
-        <v>412</v>
+        <v>405</v>
       </c>
     </row>
     <row r="415">
       <c r="A415" t="s">
-        <v>413</v>
+        <v>406</v>
       </c>
     </row>
     <row r="416">
       <c r="A416" t="s">
-        <v>414</v>
+        <v>407</v>
       </c>
     </row>
     <row r="417">
       <c r="A417" t="s">
-        <v>415</v>
+        <v>408</v>
       </c>
     </row>
     <row r="418">
       <c r="A418" t="s">
-        <v>416</v>
+        <v>409</v>
       </c>
     </row>
     <row r="419">
       <c r="A419" t="s">
-        <v>417</v>
+        <v>410</v>
       </c>
     </row>
     <row r="420">
       <c r="A420" t="s">
-        <v>418</v>
+        <v>411</v>
       </c>
     </row>
     <row r="421">
       <c r="A421" t="s">
-        <v>419</v>
+        <v>412</v>
       </c>
     </row>
     <row r="422">
       <c r="A422" t="s">
-        <v>420</v>
+        <v>413</v>
       </c>
     </row>
     <row r="423">
       <c r="A423" t="s">
-        <v>421</v>
+        <v>414</v>
       </c>
     </row>
     <row r="424">
       <c r="A424" t="s">
-        <v>422</v>
+        <v>415</v>
       </c>
     </row>
     <row r="425">
       <c r="A425" t="s">
-        <v>423</v>
+        <v>416</v>
       </c>
     </row>
     <row r="426">
       <c r="A426" t="s">
-        <v>424</v>
+        <v>417</v>
       </c>
     </row>
     <row r="427">
       <c r="A427" t="s">
-        <v>425</v>
+        <v>418</v>
       </c>
     </row>
     <row r="428">
       <c r="A428" t="s">
-        <v>426</v>
+        <v>419</v>
       </c>
     </row>
     <row r="429">
       <c r="A429" t="s">
-        <v>427</v>
+        <v>420</v>
       </c>
     </row>
     <row r="430">
       <c r="A430" t="s">
-        <v>428</v>
+        <v>421</v>
       </c>
     </row>
     <row r="431">
       <c r="A431" t="s">
-        <v>429</v>
+        <v>422</v>
       </c>
     </row>
     <row r="432">
       <c r="A432" t="s">
-        <v>430</v>
+        <v>423</v>
       </c>
     </row>
     <row r="433">
       <c r="A433" t="s">
-        <v>431</v>
+        <v>424</v>
       </c>
     </row>
     <row r="434">
       <c r="A434" t="s">
-        <v>432</v>
+        <v>425</v>
       </c>
     </row>
     <row r="435">
       <c r="A435" t="s">
-        <v>433</v>
+        <v>426</v>
       </c>
     </row>
     <row r="436">
       <c r="A436" t="s">
-        <v>434</v>
+        <v>427</v>
       </c>
     </row>
     <row r="437">
       <c r="A437" t="s">
-        <v>435</v>
+        <v>428</v>
       </c>
     </row>
     <row r="438">
       <c r="A438" t="s">
-        <v>436</v>
+        <v>429</v>
       </c>
     </row>
     <row r="439">
       <c r="A439" t="s">
-        <v>437</v>
+        <v>430</v>
       </c>
     </row>
     <row r="440">
       <c r="A440" t="s">
-        <v>438</v>
+        <v>431</v>
       </c>
     </row>
     <row r="441">
       <c r="A441" t="s">
-        <v>439</v>
+        <v>432</v>
       </c>
     </row>
     <row r="442">
       <c r="A442" t="s">
-        <v>440</v>
+        <v>433</v>
       </c>
     </row>
     <row r="443">
       <c r="A443" t="s">
-        <v>441</v>
+        <v>434</v>
       </c>
     </row>
     <row r="444">
       <c r="A444" t="s">
-        <v>442</v>
+        <v>434</v>
       </c>
     </row>
     <row r="445">
       <c r="A445" t="s">
-        <v>443</v>
+        <v>435</v>
       </c>
     </row>
     <row r="446">
       <c r="A446" t="s">
-        <v>444</v>
+        <v>436</v>
       </c>
     </row>
     <row r="447">
       <c r="A447" t="s">
-        <v>445</v>
+        <v>437</v>
       </c>
     </row>
     <row r="448">
       <c r="A448" t="s">
-        <v>446</v>
+        <v>438</v>
       </c>
     </row>
     <row r="449">
       <c r="A449" t="s">
-        <v>447</v>
+        <v>439</v>
       </c>
     </row>
     <row r="450">
       <c r="A450" t="s">
-        <v>448</v>
+        <v>440</v>
       </c>
     </row>
     <row r="451">
       <c r="A451" t="s">
-        <v>449</v>
+        <v>441</v>
       </c>
     </row>
     <row r="452">
       <c r="A452" t="s">
-        <v>450</v>
+        <v>442</v>
       </c>
     </row>
     <row r="453">
       <c r="A453" t="s">
-        <v>451</v>
+        <v>443</v>
       </c>
     </row>
     <row r="454">
       <c r="A454" t="s">
-        <v>452</v>
+        <v>444</v>
       </c>
     </row>
     <row r="455">
       <c r="A455" t="s">
-        <v>453</v>
+        <v>445</v>
       </c>
     </row>
     <row r="456">
       <c r="A456" t="s">
-        <v>454</v>
+        <v>446</v>
       </c>
     </row>
     <row r="457">
       <c r="A457" t="s">
-        <v>455</v>
+        <v>447</v>
       </c>
     </row>
     <row r="458">
       <c r="A458" t="s">
-        <v>456</v>
+        <v>448</v>
       </c>
     </row>
     <row r="459">
       <c r="A459" t="s">
-        <v>457</v>
+        <v>449</v>
       </c>
     </row>
     <row r="460">
       <c r="A460" t="s">
-        <v>458</v>
+        <v>449</v>
       </c>
     </row>
     <row r="461">
       <c r="A461" t="s">
-        <v>459</v>
+        <v>450</v>
       </c>
     </row>
     <row r="462">
       <c r="A462" t="s">
-        <v>460</v>
+        <v>451</v>
       </c>
     </row>
     <row r="463">
       <c r="A463" t="s">
-        <v>461</v>
+        <v>452</v>
       </c>
     </row>
     <row r="464">
       <c r="A464" t="s">
-        <v>462</v>
+        <v>453</v>
       </c>
     </row>
     <row r="465">
       <c r="A465" t="s">
-        <v>463</v>
+        <v>454</v>
       </c>
     </row>
     <row r="466">
       <c r="A466" t="s">
-        <v>464</v>
+        <v>455</v>
       </c>
     </row>
     <row r="467">
       <c r="A467" t="s">
-        <v>465</v>
+        <v>456</v>
       </c>
     </row>
     <row r="468">
       <c r="A468" t="s">
-        <v>466</v>
+        <v>457</v>
       </c>
     </row>
     <row r="469">
       <c r="A469" t="s">
-        <v>467</v>
+        <v>458</v>
       </c>
     </row>
     <row r="470">
       <c r="A470" t="s">
-        <v>468</v>
+        <v>459</v>
       </c>
     </row>
     <row r="471">
       <c r="A471" t="s">
-        <v>469</v>
+        <v>460</v>
       </c>
     </row>
     <row r="472">
       <c r="A472" t="s">
-        <v>470</v>
+        <v>461</v>
       </c>
     </row>
     <row r="473">
       <c r="A473" t="s">
-        <v>471</v>
+        <v>462</v>
       </c>
     </row>
     <row r="474">
       <c r="A474" t="s">
-        <v>472</v>
+        <v>463</v>
       </c>
     </row>
     <row r="475">
       <c r="A475" t="s">
-        <v>473</v>
+        <v>464</v>
       </c>
     </row>
     <row r="476">
       <c r="A476" t="s">
-        <v>474</v>
-      </c>
-    </row>
-    <row r="477">
-      <c r="A477" t="s">
-        <v>475</v>
-      </c>
-    </row>
-    <row r="478">
-      <c r="A478" t="s">
-        <v>476</v>
-      </c>
-    </row>
-    <row r="479">
-      <c r="A479" t="s">
-        <v>477</v>
-      </c>
-    </row>
-    <row r="480">
-      <c r="A480" t="s">
-        <v>478</v>
-      </c>
-    </row>
-    <row r="481">
-      <c r="A481" t="s">
-        <v>479</v>
+        <v>465</v>
       </c>
     </row>
   </sheetData>
